--- a/medicine/Enfance/Stéphane_Poulin/Stéphane_Poulin.xlsx
+++ b/medicine/Enfance/Stéphane_Poulin/Stéphane_Poulin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Poulin</t>
+          <t>Stéphane_Poulin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stéphane Poulin, né à Montréal en 1961, est un illustrateur et auteur de littérature d'enfance et de jeunesse québécois .
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Poulin</t>
+          <t>Stéphane_Poulin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il publie son premier livre pour enfants en 1985, Ah ! Belle cité ![1]. Quoiqu'il ait écrit des livres traduits en plusieurs langues il avoue se sentir plus à l'aise dans son rôle d'illustrateur que dans celui d'écrivain. On peut voir ses réalisations dans plus d'une centaine de livres. 
-En 2011 est publié l'album dont Carl Norac a écrit le texte, Au pays de la mémoire blanche, qu'il a dessiné, un roman graphique qui a nécessité plusieurs années de travail[2],[3], sur le thème de la guerre.
-En 2023, il est sélectionné pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il publie son premier livre pour enfants en 1985, Ah ! Belle cité !. Quoiqu'il ait écrit des livres traduits en plusieurs langues il avoue se sentir plus à l'aise dans son rôle d'illustrateur que dans celui d'écrivain. On peut voir ses réalisations dans plus d'une centaine de livres. 
+En 2011 est publié l'album dont Carl Norac a écrit le texte, Au pays de la mémoire blanche, qu'il a dessiné, un roman graphique qui a nécessité plusieurs années de travail sur le thème de la guerre.
+En 2023, il est sélectionné pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Poulin</t>
+          <t>Stéphane_Poulin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1986 - Prix de littérature de jeunesse du Conseil des Arts du Canada, meilleures illustrations d'un livre en français, Album de famille et As-tu vu Joséphine?
 1987 - Finaliste au Prix du Gouverneur général
@@ -552,25 +568,25 @@
 1988 - Concours littéraire du Boston Globe, Peux-tu attraper Joséphine?
 1989 - Prix du Gouverneur général, Benjamin &amp; la saga des oreillers
 1989 - Vicky Metcalf Award
-1990 : (international) « Honour List »[5] de l' IBBY pour Could you stop Josephine
+1990 : (international) « Honour List » de l' IBBY pour Could you stop Josephine
 1990 - Finaliste au Prix du Gouverneur général
 1990 - Prix Québec-Wallonie-Bruxelles de littérature de jeunesse, Album de famille
 1991 - Prix du livre M. Christie, Un voyage pour deux
 1991 - Finaliste au Prix du Gouverneur général
 1994 - Finaliste au Prix du Gouverneur général
-1994 : (international) « Honour List »[5] de l' IBBY pour Un voyage pour deux
+1994 : (international) « Honour List » de l' IBBY pour Un voyage pour deux
 1997 - Finaliste au Prix du Gouverneur général
 1997 - Prix du livre M. Christie, Poil de serpent, dent d'araignée
 1998 - Finaliste au Prix du Gouverneur général
-1998 : (international) « Honour List »[5] de l' IBBY pour Poil de serpent, dent d'araignée, texte de Danielle Marcotte
-1998 - Prix illustration jeunesse[6] GLV et Salon du livre de Trois-Rivières, Petit zizi
+1998 : (international) « Honour List » de l' IBBY pour Poil de serpent, dent d'araignée, texte de Danielle Marcotte
+1998 - Prix illustration jeunesse GLV et Salon du livre de Trois-Rivières, Petit zizi
 2000 - Prix du livre M. Christie, Vieux Thomas et la petite fée
-2001 - Prix illustration jeunesse[6] GLV et Salon du livre de Trois-Rivières, Vieux Thomas et la petite fée
+2001 - Prix illustration jeunesse GLV et Salon du livre de Trois-Rivières, Vieux Thomas et la petite fée
 2001 - Finaliste au Prix du Gouverneur général
 2003 - Finaliste au Prix du Gouverneur général
 2005 - Finaliste au Prix du Gouverneur général
-2021 -  Finaliste Prix Landerneau[7], Catégorie Album Jeunesse, pour Lucky Joey, texte de Carl Norac
-2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren[4]</t>
+2021 -  Finaliste Prix Landerneau, Catégorie Album Jeunesse, pour Lucky Joey, texte de Carl Norac
+2023 :  Sélection pour le Prix commémoratif Astrid-Lindgren</t>
         </is>
       </c>
     </row>
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>St%C3%A9phane_Poulin</t>
+          <t>Stéphane_Poulin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,7 +614,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Have you seen Josephine?, Tundra books
 Can you catch Josephine?, Tundra
